--- a/Reports/Week04_report.xlsx
+++ b/Reports/Week04_report.xlsx
@@ -211,7 +211,7 @@
     <t>Week: Week04</t>
   </si>
   <si>
-    <t>Generated: 2023-10-03 10:57:35 AM</t>
+    <t>Generated: 2023-10-03 11:50:54 AM</t>
   </si>
 </sst>
 </file>

--- a/Reports/Week04_report.xlsx
+++ b/Reports/Week04_report.xlsx
@@ -211,7 +211,7 @@
     <t>Week: Week04</t>
   </si>
   <si>
-    <t>Generated: 2023-10-03 11:50:54 AM</t>
+    <t>Generated: 2023-10-03 12:34:45 PM</t>
   </si>
 </sst>
 </file>

--- a/Reports/Week04_report.xlsx
+++ b/Reports/Week04_report.xlsx
@@ -211,7 +211,7 @@
     <t>Week: Week04</t>
   </si>
   <si>
-    <t>Generated: 2023-10-03 12:34:45 PM</t>
+    <t>Generated: 2023-10-03 02:56:39 PM</t>
   </si>
 </sst>
 </file>

--- a/Reports/Week04_report.xlsx
+++ b/Reports/Week04_report.xlsx
@@ -211,7 +211,7 @@
     <t>Week: Week04</t>
   </si>
   <si>
-    <t>Generated: 2023-10-03 02:56:39 PM</t>
+    <t>Generated: 2023-10-03 09:45:56 PM</t>
   </si>
 </sst>
 </file>

--- a/Reports/Week04_report.xlsx
+++ b/Reports/Week04_report.xlsx
@@ -211,7 +211,7 @@
     <t>Week: Week04</t>
   </si>
   <si>
-    <t>Generated: 2023-10-03 09:45:56 PM</t>
+    <t>Generated: 2023-10-05 10:40:25 AM</t>
   </si>
 </sst>
 </file>

--- a/Reports/Week04_report.xlsx
+++ b/Reports/Week04_report.xlsx
@@ -199,7 +199,7 @@
     <t>Error messages_200 OK_404 Not Found, Google Chrome Extensions, Tweet_AI tool_Futurepedia</t>
   </si>
   <si>
-    <t>Tweet_AI tool_Futurepedia</t>
+    <t>Error messages_200 OK_404 Not Found</t>
   </si>
   <si>
     <t>Completed</t>
@@ -211,7 +211,7 @@
     <t>Week: Week04</t>
   </si>
   <si>
-    <t>Generated: 2023-10-05 10:40:25 AM</t>
+    <t>Generated: 2023-10-06 01:09:57 PM</t>
   </si>
 </sst>
 </file>

--- a/Reports/Week04_report.xlsx
+++ b/Reports/Week04_report.xlsx
@@ -211,7 +211,7 @@
     <t>Week: Week04</t>
   </si>
   <si>
-    <t>Generated: 2023-10-06 01:09:57 PM</t>
+    <t>Generated: 2023-10-07 09:06:20 PM</t>
   </si>
 </sst>
 </file>

--- a/Reports/Week04_report.xlsx
+++ b/Reports/Week04_report.xlsx
@@ -211,7 +211,7 @@
     <t>Week: Week04</t>
   </si>
   <si>
-    <t>Generated: 2023-10-07 09:06:20 PM</t>
+    <t>Generated: 2023-10-08 11:29:28 AM</t>
   </si>
 </sst>
 </file>

--- a/Reports/Week04_report.xlsx
+++ b/Reports/Week04_report.xlsx
@@ -211,7 +211,7 @@
     <t>Week: Week04</t>
   </si>
   <si>
-    <t>Generated: 2023-10-08 11:29:28 AM</t>
+    <t>Generated: 2023-10-08 11:51:58 AM</t>
   </si>
 </sst>
 </file>

--- a/Reports/Week04_report.xlsx
+++ b/Reports/Week04_report.xlsx
@@ -211,7 +211,7 @@
     <t>Week: Week04</t>
   </si>
   <si>
-    <t>Generated: 2023-10-08 11:51:58 AM</t>
+    <t>Generated: 2023-10-10 10:43:20 AM</t>
   </si>
 </sst>
 </file>

--- a/Reports/Week04_report.xlsx
+++ b/Reports/Week04_report.xlsx
@@ -211,7 +211,7 @@
     <t>Week: Week04</t>
   </si>
   <si>
-    <t>Generated: 2023-10-10 10:43:20 AM</t>
+    <t>Generated: 2023-10-13 12:03:46 PM</t>
   </si>
 </sst>
 </file>

--- a/Reports/Week04_report.xlsx
+++ b/Reports/Week04_report.xlsx
@@ -211,7 +211,7 @@
     <t>Week: Week04</t>
   </si>
   <si>
-    <t>Generated: 2023-10-13 12:03:46 PM</t>
+    <t>Generated: 2023-10-19 02:26:39 PM</t>
   </si>
 </sst>
 </file>

--- a/Reports/Week04_report.xlsx
+++ b/Reports/Week04_report.xlsx
@@ -196,7 +196,7 @@
     <t>Error messages_200 OK_404 Not Found, Google Chrome Extensions, Tweet_AI tool_Futurepedia, Download_Install_ Google Chrome Canary Version</t>
   </si>
   <si>
-    <t>Error messages_200 OK_404 Not Found, Google Chrome Extensions, Tweet_AI tool_Futurepedia</t>
+    <t>Google Chrome Extensions</t>
   </si>
   <si>
     <t>Error messages_200 OK_404 Not Found</t>
@@ -211,7 +211,7 @@
     <t>Week: Week04</t>
   </si>
   <si>
-    <t>Generated: 2023-10-19 02:26:39 PM</t>
+    <t>Generated: 2023-10-23 12:57:26 PM</t>
   </si>
 </sst>
 </file>

--- a/Reports/Week04_report.xlsx
+++ b/Reports/Week04_report.xlsx
@@ -211,7 +211,7 @@
     <t>Week: Week04</t>
   </si>
   <si>
-    <t>Generated: 2023-10-23 12:57:26 PM</t>
+    <t>Generated: 2023-10-25 11:22:40 AM</t>
   </si>
 </sst>
 </file>
